--- a/data/pca/factorExposure/factorExposure_2015-12-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-12-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01540574948244943</v>
+        <v>0.01599204218902555</v>
       </c>
       <c r="C2">
-        <v>0.0309847313257682</v>
+        <v>-0.03368774772932272</v>
       </c>
       <c r="D2">
-        <v>0.09632328075533253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1226530284441047</v>
+      </c>
+      <c r="E2">
+        <v>0.0627144087249626</v>
+      </c>
+      <c r="F2">
+        <v>0.0269536600859373</v>
+      </c>
+      <c r="G2">
+        <v>-0.06169596012602323</v>
+      </c>
+      <c r="H2">
+        <v>0.09243829443917714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.0165443190859981</v>
+        <v>0.009734907173774709</v>
       </c>
       <c r="C3">
-        <v>0.05152354734116398</v>
+        <v>-0.03509443556416249</v>
       </c>
       <c r="D3">
-        <v>0.1366346499751692</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07875719240529178</v>
+      </c>
+      <c r="E3">
+        <v>0.05417131843267451</v>
+      </c>
+      <c r="F3">
+        <v>0.03526618682158946</v>
+      </c>
+      <c r="G3">
+        <v>-0.08325188945330178</v>
+      </c>
+      <c r="H3">
+        <v>0.03784789910543301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.05243467436623592</v>
+        <v>0.0543385250567301</v>
       </c>
       <c r="C4">
-        <v>0.03816172894492183</v>
+        <v>-0.06400145551604168</v>
       </c>
       <c r="D4">
-        <v>0.1311616114089555</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1443544849395402</v>
+      </c>
+      <c r="E4">
+        <v>0.04801603535584985</v>
+      </c>
+      <c r="F4">
+        <v>0.01847403010218276</v>
+      </c>
+      <c r="G4">
+        <v>0.03050264561800972</v>
+      </c>
+      <c r="H4">
+        <v>-0.0329191352054661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04322368552849971</v>
+        <v>0.03954064061375673</v>
       </c>
       <c r="C6">
-        <v>0.005450075437597767</v>
+        <v>-0.02575506673476408</v>
       </c>
       <c r="D6">
-        <v>0.1367261853400701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1335835137167852</v>
+      </c>
+      <c r="E6">
+        <v>0.02669794342928147</v>
+      </c>
+      <c r="F6">
+        <v>0.01501587836843979</v>
+      </c>
+      <c r="G6">
+        <v>-0.01032355176603864</v>
+      </c>
+      <c r="H6">
+        <v>0.01255008975720945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02071680908536164</v>
+        <v>0.01508334400331685</v>
       </c>
       <c r="C7">
-        <v>0.01241186960388995</v>
+        <v>-0.02952639493523201</v>
       </c>
       <c r="D7">
-        <v>0.09631333551585343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09525343715526309</v>
+      </c>
+      <c r="E7">
+        <v>0.02919381950036311</v>
+      </c>
+      <c r="F7">
+        <v>0.01628345106259437</v>
+      </c>
+      <c r="G7">
+        <v>0.01616261540800851</v>
+      </c>
+      <c r="H7">
+        <v>0.1078174588521846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.008216721946419559</v>
+        <v>0.005954666457199409</v>
       </c>
       <c r="C8">
-        <v>0.02901837402963531</v>
+        <v>-0.0375879003959388</v>
       </c>
       <c r="D8">
-        <v>0.05684469025703848</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07462848534555185</v>
+      </c>
+      <c r="E8">
+        <v>0.03486336809020135</v>
+      </c>
+      <c r="F8">
+        <v>0.04080786574129362</v>
+      </c>
+      <c r="G8">
+        <v>-0.007752550900693174</v>
+      </c>
+      <c r="H8">
+        <v>0.04553892178532183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.0429246834447073</v>
+        <v>0.04252094183946993</v>
       </c>
       <c r="C9">
-        <v>0.03739622326899826</v>
+        <v>-0.05868741454375095</v>
       </c>
       <c r="D9">
-        <v>0.1146704810483271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.122220525411737</v>
+      </c>
+      <c r="E9">
+        <v>0.03333437682485747</v>
+      </c>
+      <c r="F9">
+        <v>0.00175029269695537</v>
+      </c>
+      <c r="G9">
+        <v>0.02520909487854546</v>
+      </c>
+      <c r="H9">
+        <v>0.00148524963489179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.09422977575447496</v>
+        <v>0.1368429674279233</v>
       </c>
       <c r="C10">
-        <v>-0.1941385683726721</v>
+        <v>0.1885004082702391</v>
       </c>
       <c r="D10">
-        <v>0.0001002803980594754</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.0008175273181704437</v>
+      </c>
+      <c r="E10">
+        <v>0.04718202054991624</v>
+      </c>
+      <c r="F10">
+        <v>0.02074505099970775</v>
+      </c>
+      <c r="G10">
+        <v>0.03658353546815944</v>
+      </c>
+      <c r="H10">
+        <v>-0.002257276883733017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03424501823413583</v>
+        <v>0.02828129377604141</v>
       </c>
       <c r="C11">
-        <v>0.03841003755401372</v>
+        <v>-0.04306539250525095</v>
       </c>
       <c r="D11">
-        <v>0.06000813315511382</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05779727172411681</v>
+      </c>
+      <c r="E11">
+        <v>-0.005513878374737567</v>
+      </c>
+      <c r="F11">
+        <v>0.0007943490238534562</v>
+      </c>
+      <c r="G11">
+        <v>0.004615958014843303</v>
+      </c>
+      <c r="H11">
+        <v>0.04770190336071053</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.0393452886244049</v>
+        <v>0.0340377604537474</v>
       </c>
       <c r="C12">
-        <v>0.04072508266597138</v>
+        <v>-0.04577102257644963</v>
       </c>
       <c r="D12">
-        <v>0.06360091556704554</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05852853005992739</v>
+      </c>
+      <c r="E12">
+        <v>0.002746680513275399</v>
+      </c>
+      <c r="F12">
+        <v>-0.007206352847778352</v>
+      </c>
+      <c r="G12">
+        <v>0.005978479912003001</v>
+      </c>
+      <c r="H12">
+        <v>0.0595551928000845</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01782456904613559</v>
+        <v>0.01800842440372467</v>
       </c>
       <c r="C13">
-        <v>0.02550371008147558</v>
+        <v>-0.03661155077800434</v>
       </c>
       <c r="D13">
-        <v>0.1325067986883741</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1482747797048275</v>
+      </c>
+      <c r="E13">
+        <v>0.04980283184726769</v>
+      </c>
+      <c r="F13">
+        <v>0.03369971644334682</v>
+      </c>
+      <c r="G13">
+        <v>0.002046343915381385</v>
+      </c>
+      <c r="H13">
+        <v>0.09931819368328627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.009712226245643394</v>
+        <v>0.007038692798297972</v>
       </c>
       <c r="C14">
-        <v>0.0195070200708815</v>
+        <v>-0.02443907829277903</v>
       </c>
       <c r="D14">
-        <v>0.08363986204351317</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.08557603721216821</v>
+      </c>
+      <c r="E14">
+        <v>0.03336296537662681</v>
+      </c>
+      <c r="F14">
+        <v>-0.008840853128600551</v>
+      </c>
+      <c r="G14">
+        <v>-0.000779612027113854</v>
+      </c>
+      <c r="H14">
+        <v>0.09930182375168196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001240196446663108</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.009646063101809202</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.03045871109689107</v>
+      </c>
+      <c r="E15">
+        <v>0.005483175018323207</v>
+      </c>
+      <c r="F15">
+        <v>-0.001354421209836301</v>
+      </c>
+      <c r="G15">
+        <v>-0.008824316261392722</v>
+      </c>
+      <c r="H15">
+        <v>0.009809617658640446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03525601242615678</v>
+        <v>0.02904906049197579</v>
       </c>
       <c r="C16">
-        <v>0.03801950443755748</v>
+        <v>-0.04294589639794309</v>
       </c>
       <c r="D16">
-        <v>0.06933954672399609</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06169303449937336</v>
+      </c>
+      <c r="E16">
+        <v>0.006925551194285789</v>
+      </c>
+      <c r="F16">
+        <v>-0.006593035056606572</v>
+      </c>
+      <c r="G16">
+        <v>0.003749707409771258</v>
+      </c>
+      <c r="H16">
+        <v>0.05798473077987622</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.01021448720781167</v>
+        <v>0.006499548058881095</v>
       </c>
       <c r="C19">
-        <v>0.02147470354602172</v>
+        <v>-0.01995835861223137</v>
       </c>
       <c r="D19">
-        <v>0.1673858037936613</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1272767746825824</v>
+      </c>
+      <c r="E19">
+        <v>0.06386208521735713</v>
+      </c>
+      <c r="F19">
+        <v>-0.007198983304859329</v>
+      </c>
+      <c r="G19">
+        <v>-0.01313111503096176</v>
+      </c>
+      <c r="H19">
+        <v>0.06650488408696738</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.02072011697288632</v>
+        <v>0.01617461961368465</v>
       </c>
       <c r="C20">
-        <v>0.02203945639583867</v>
+        <v>-0.03182816521451059</v>
       </c>
       <c r="D20">
-        <v>0.09259102277214162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.1007328050688916</v>
+      </c>
+      <c r="E20">
+        <v>0.0511884179731879</v>
+      </c>
+      <c r="F20">
+        <v>-0.002896021235786727</v>
+      </c>
+      <c r="G20">
+        <v>0.003327011121607942</v>
+      </c>
+      <c r="H20">
+        <v>0.05560451675345562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01538306222471744</v>
+        <v>0.01381332353290365</v>
       </c>
       <c r="C21">
-        <v>0.02452462814114903</v>
+        <v>-0.0363268413813327</v>
       </c>
       <c r="D21">
-        <v>0.133249115024792</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1433673468544972</v>
+      </c>
+      <c r="E21">
+        <v>0.08798311239845555</v>
+      </c>
+      <c r="F21">
+        <v>0.000519982547420577</v>
+      </c>
+      <c r="G21">
+        <v>0.03817891265413521</v>
+      </c>
+      <c r="H21">
+        <v>0.1127871570198507</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.006292002476923728</v>
+        <v>0.005524750412318197</v>
       </c>
       <c r="C22">
-        <v>0.0278119029068451</v>
+        <v>-0.03999821021860277</v>
       </c>
       <c r="D22">
-        <v>0.08420636420690539</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1402538007070386</v>
+      </c>
+      <c r="E22">
+        <v>0.02132394513349796</v>
+      </c>
+      <c r="F22">
+        <v>0.08773776394695632</v>
+      </c>
+      <c r="G22">
+        <v>-0.07696611252230498</v>
+      </c>
+      <c r="H22">
+        <v>-0.04928694676996968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.006381095423293056</v>
+        <v>0.005625097825181355</v>
       </c>
       <c r="C23">
-        <v>0.02771293775632028</v>
+        <v>-0.04045252355625011</v>
       </c>
       <c r="D23">
-        <v>0.08361329917371987</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1397049687440685</v>
+      </c>
+      <c r="E23">
+        <v>0.02162264130500734</v>
+      </c>
+      <c r="F23">
+        <v>0.08770208956934127</v>
+      </c>
+      <c r="G23">
+        <v>-0.07602945941096947</v>
+      </c>
+      <c r="H23">
+        <v>-0.04954354373213189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03525404145269474</v>
+        <v>0.03074255042346413</v>
       </c>
       <c r="C24">
-        <v>0.04479328731353616</v>
+        <v>-0.054575589266282</v>
       </c>
       <c r="D24">
-        <v>0.07018928715665027</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06641388137329136</v>
+      </c>
+      <c r="E24">
+        <v>0.01086817891379562</v>
+      </c>
+      <c r="F24">
+        <v>-0.004878099896282614</v>
+      </c>
+      <c r="G24">
+        <v>0.01435599890564106</v>
+      </c>
+      <c r="H24">
+        <v>0.06802729298737016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.04108083251805243</v>
+        <v>0.03566258392056838</v>
       </c>
       <c r="C25">
-        <v>0.04704827264571307</v>
+        <v>-0.05264463298024975</v>
       </c>
       <c r="D25">
-        <v>0.06975720942839356</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06307096296989539</v>
+      </c>
+      <c r="E25">
+        <v>0.01194562172330189</v>
+      </c>
+      <c r="F25">
+        <v>9.207046241424447e-05</v>
+      </c>
+      <c r="G25">
+        <v>0.01354287049964983</v>
+      </c>
+      <c r="H25">
+        <v>0.05353190875069214</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02070637308927853</v>
+        <v>0.01843058146411976</v>
       </c>
       <c r="C26">
-        <v>0.00690758216962136</v>
+        <v>-0.01803298808739151</v>
       </c>
       <c r="D26">
-        <v>0.05319747087338181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06446330980871938</v>
+      </c>
+      <c r="E26">
+        <v>0.02493584295429527</v>
+      </c>
+      <c r="F26">
+        <v>0.001410415739462804</v>
+      </c>
+      <c r="G26">
+        <v>0.000757441854629045</v>
+      </c>
+      <c r="H26">
+        <v>0.0615805268167556</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1408030219724644</v>
+        <v>0.1947383100563124</v>
       </c>
       <c r="C28">
-        <v>-0.2742675288440526</v>
+        <v>0.254500674393751</v>
       </c>
       <c r="D28">
-        <v>-0.03341374248796881</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.0124699794603973</v>
+      </c>
+      <c r="E28">
+        <v>0.07382005492305395</v>
+      </c>
+      <c r="F28">
+        <v>0.003899176939456395</v>
+      </c>
+      <c r="G28">
+        <v>0.06739351624225184</v>
+      </c>
+      <c r="H28">
+        <v>0.006048970794043168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.005598808474850869</v>
+        <v>0.005905698546304544</v>
       </c>
       <c r="C29">
-        <v>0.01833754215513264</v>
+        <v>-0.02246458722448293</v>
       </c>
       <c r="D29">
-        <v>0.06903741383345571</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.08178430481561083</v>
+      </c>
+      <c r="E29">
+        <v>0.03203586004043336</v>
+      </c>
+      <c r="F29">
+        <v>0.004831065487837077</v>
+      </c>
+      <c r="G29">
+        <v>0.01957567763081791</v>
+      </c>
+      <c r="H29">
+        <v>0.1036922415973071</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.039765603730325</v>
+        <v>0.0418008190643418</v>
       </c>
       <c r="C30">
-        <v>0.03368774077626218</v>
+        <v>-0.05898224930310822</v>
       </c>
       <c r="D30">
-        <v>0.1666556554306571</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.179895613394373</v>
+      </c>
+      <c r="E30">
+        <v>0.01510320965668261</v>
+      </c>
+      <c r="F30">
+        <v>0.006948966876607012</v>
+      </c>
+      <c r="G30">
+        <v>-0.02795750604406106</v>
+      </c>
+      <c r="H30">
+        <v>0.001707194626262808</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.0693602569269435</v>
+        <v>0.05642007287626987</v>
       </c>
       <c r="C31">
-        <v>0.04797836997796025</v>
+        <v>-0.07076137374139863</v>
       </c>
       <c r="D31">
-        <v>0.06773831927770976</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05467592725994502</v>
+      </c>
+      <c r="E31">
+        <v>0.02168364456264383</v>
+      </c>
+      <c r="F31">
+        <v>0.03812401333350937</v>
+      </c>
+      <c r="G31">
+        <v>0.02149322992310556</v>
+      </c>
+      <c r="H31">
+        <v>0.0370988044243871</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.004695117073549711</v>
+        <v>0.011848589929596</v>
       </c>
       <c r="C32">
-        <v>0.009070881050368289</v>
+        <v>-0.01792413264024313</v>
       </c>
       <c r="D32">
-        <v>0.0660744901384073</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.1025139575062288</v>
+      </c>
+      <c r="E32">
+        <v>0.09205573207084676</v>
+      </c>
+      <c r="F32">
+        <v>0.01716090474090095</v>
+      </c>
+      <c r="G32">
+        <v>0.03383562757332356</v>
+      </c>
+      <c r="H32">
+        <v>0.08558294174918027</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02637525171683866</v>
+        <v>0.02398773458622171</v>
       </c>
       <c r="C33">
-        <v>0.02053013037391146</v>
+        <v>-0.04112629892497326</v>
       </c>
       <c r="D33">
-        <v>0.1368246099554422</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1336310122029246</v>
+      </c>
+      <c r="E33">
+        <v>0.04033126405828748</v>
+      </c>
+      <c r="F33">
+        <v>0.01583831688186807</v>
+      </c>
+      <c r="G33">
+        <v>0.00414003441740038</v>
+      </c>
+      <c r="H33">
+        <v>0.06492528839638832</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03432319033406107</v>
+        <v>0.02702633161742857</v>
       </c>
       <c r="C34">
-        <v>0.05835529841924889</v>
+        <v>-0.06022434742677519</v>
       </c>
       <c r="D34">
-        <v>0.06940317295885569</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05770225232844414</v>
+      </c>
+      <c r="E34">
+        <v>-0.004620012040321206</v>
+      </c>
+      <c r="F34">
+        <v>-0.01212646443224189</v>
+      </c>
+      <c r="G34">
+        <v>0.008836287928455666</v>
+      </c>
+      <c r="H34">
+        <v>0.07587960173347211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0005305052718241134</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0006554459125619195</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.004028454659068253</v>
+      </c>
+      <c r="E35">
+        <v>0.0001580274338302105</v>
+      </c>
+      <c r="F35">
+        <v>4.165150516829685e-05</v>
+      </c>
+      <c r="G35">
+        <v>-0.001605503925437981</v>
+      </c>
+      <c r="H35">
+        <v>0.002325451520296389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02039078994810943</v>
+        <v>0.01847159191978259</v>
       </c>
       <c r="C36">
-        <v>0.0008881794494752727</v>
+        <v>-0.01397249038699681</v>
       </c>
       <c r="D36">
-        <v>0.0752297716640247</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.07894046871218648</v>
+      </c>
+      <c r="E36">
+        <v>0.03330618553050124</v>
+      </c>
+      <c r="F36">
+        <v>-0.002418137104661016</v>
+      </c>
+      <c r="G36">
+        <v>0.01392123935315689</v>
+      </c>
+      <c r="H36">
+        <v>0.05236523424156916</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02525642708676432</v>
+        <v>0.02081599393283293</v>
       </c>
       <c r="C38">
-        <v>0.01738652312527393</v>
+        <v>-0.02219513241625646</v>
       </c>
       <c r="D38">
-        <v>0.05345918071813191</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.05758385222256254</v>
+      </c>
+      <c r="E38">
+        <v>0.03682491637427538</v>
+      </c>
+      <c r="F38">
+        <v>-0.003868889704760875</v>
+      </c>
+      <c r="G38">
+        <v>-0.03454803474441464</v>
+      </c>
+      <c r="H38">
+        <v>0.04014896655342255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.03968457605706181</v>
+        <v>0.03595376349396096</v>
       </c>
       <c r="C39">
-        <v>0.04911734717402447</v>
+        <v>-0.06278108936273195</v>
       </c>
       <c r="D39">
-        <v>0.09251260064581014</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1051404645496672</v>
+      </c>
+      <c r="E39">
+        <v>0.006153018548178007</v>
+      </c>
+      <c r="F39">
+        <v>-0.02504107078757208</v>
+      </c>
+      <c r="G39">
+        <v>0.003524932235122845</v>
+      </c>
+      <c r="H39">
+        <v>0.08293955352175193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01751819778983341</v>
+        <v>0.01390616979884713</v>
       </c>
       <c r="C40">
-        <v>0.04240716046338729</v>
+        <v>-0.0370865419706755</v>
       </c>
       <c r="D40">
-        <v>0.08104975907827168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08701079283228347</v>
+      </c>
+      <c r="E40">
+        <v>0.06302906511623409</v>
+      </c>
+      <c r="F40">
+        <v>0.06453961653178354</v>
+      </c>
+      <c r="G40">
+        <v>-0.0400699601699876</v>
+      </c>
+      <c r="H40">
+        <v>0.1680940744581967</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02405983974187878</v>
+        <v>0.0226029461844674</v>
       </c>
       <c r="C41">
-        <v>-0.009116159289953261</v>
+        <v>-0.007773133297443414</v>
       </c>
       <c r="D41">
-        <v>0.0698517191659056</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05706353651444195</v>
+      </c>
+      <c r="E41">
+        <v>0.05089342272981779</v>
+      </c>
+      <c r="F41">
+        <v>0.00285053020268755</v>
+      </c>
+      <c r="G41">
+        <v>-0.007653937624160442</v>
+      </c>
+      <c r="H41">
+        <v>0.04936145634800299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0321253391488292</v>
+        <v>0.02433254632133947</v>
       </c>
       <c r="C43">
-        <v>0.0009846175754221285</v>
+        <v>-0.01823983352961886</v>
       </c>
       <c r="D43">
-        <v>0.1087427983929995</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.0871455144983051</v>
+      </c>
+      <c r="E43">
+        <v>0.0310728436542842</v>
+      </c>
+      <c r="F43">
+        <v>0.005298495540264016</v>
+      </c>
+      <c r="G43">
+        <v>-0.006978904619069788</v>
+      </c>
+      <c r="H43">
+        <v>0.06825461829334713</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01269023233626112</v>
+        <v>0.01651163263255981</v>
       </c>
       <c r="C44">
-        <v>0.03998140691236568</v>
+        <v>-0.04097363821275318</v>
       </c>
       <c r="D44">
-        <v>0.09020159644816583</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.101435668672011</v>
+      </c>
+      <c r="E44">
+        <v>0.07036706943587089</v>
+      </c>
+      <c r="F44">
+        <v>0.005985223695452703</v>
+      </c>
+      <c r="G44">
+        <v>0.007555689691734207</v>
+      </c>
+      <c r="H44">
+        <v>0.07417485820175891</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.0191082967039343</v>
+        <v>0.01581602211960273</v>
       </c>
       <c r="C46">
-        <v>0.01725323049846435</v>
+        <v>-0.02761731930884508</v>
       </c>
       <c r="D46">
-        <v>0.07857008423434493</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.08953129399542525</v>
+      </c>
+      <c r="E46">
+        <v>0.03766250539662745</v>
+      </c>
+      <c r="F46">
+        <v>-0.01510111506507552</v>
+      </c>
+      <c r="G46">
+        <v>0.02734813215088351</v>
+      </c>
+      <c r="H46">
+        <v>0.1055517991111643</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.0961567323107998</v>
+        <v>0.08503192908525729</v>
       </c>
       <c r="C47">
-        <v>0.06686839179830761</v>
+        <v>-0.0886484236249748</v>
       </c>
       <c r="D47">
-        <v>0.04183037343218531</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03368525177373174</v>
+      </c>
+      <c r="E47">
+        <v>0.03539804618989591</v>
+      </c>
+      <c r="F47">
+        <v>0.02225934517879163</v>
+      </c>
+      <c r="G47">
+        <v>0.04423835125797888</v>
+      </c>
+      <c r="H47">
+        <v>0.01411426205801725</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01623251388354811</v>
+        <v>0.01658643213214663</v>
       </c>
       <c r="C48">
-        <v>0.01075537603117364</v>
+        <v>-0.01912874403832677</v>
       </c>
       <c r="D48">
-        <v>0.06775368650273426</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07608620689952286</v>
+      </c>
+      <c r="E48">
+        <v>0.05114644783972496</v>
+      </c>
+      <c r="F48">
+        <v>-0.005476332972161916</v>
+      </c>
+      <c r="G48">
+        <v>0.01294682356536263</v>
+      </c>
+      <c r="H48">
+        <v>0.05870909449771609</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.07496160452230048</v>
+        <v>0.05847578537698107</v>
       </c>
       <c r="C50">
-        <v>0.0602582983224341</v>
+        <v>-0.06812793167974734</v>
       </c>
       <c r="D50">
-        <v>0.06107875611655204</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05447738219021216</v>
+      </c>
+      <c r="E50">
+        <v>0.03848534937918309</v>
+      </c>
+      <c r="F50">
+        <v>0.04385188499662027</v>
+      </c>
+      <c r="G50">
+        <v>-0.01329239481546085</v>
+      </c>
+      <c r="H50">
+        <v>0.04321377078662042</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01009087136963851</v>
+        <v>0.007914278806612012</v>
       </c>
       <c r="C51">
-        <v>0.01580271387097954</v>
+        <v>-0.01812381448047635</v>
       </c>
       <c r="D51">
-        <v>0.08708999716196356</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.09313239323496253</v>
+      </c>
+      <c r="E51">
+        <v>0.02118622790348011</v>
+      </c>
+      <c r="F51">
+        <v>-0.0053600164338129</v>
+      </c>
+      <c r="G51">
+        <v>-0.005857753135649136</v>
+      </c>
+      <c r="H51">
+        <v>0.07808036455398192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.08175469907772651</v>
+        <v>0.08645559299707038</v>
       </c>
       <c r="C53">
-        <v>0.09330812315846328</v>
+        <v>-0.1018376430616342</v>
       </c>
       <c r="D53">
-        <v>0.02644805652815885</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.01202382886891358</v>
+      </c>
+      <c r="E53">
+        <v>0.1034097226155225</v>
+      </c>
+      <c r="F53">
+        <v>0.04724014908874909</v>
+      </c>
+      <c r="G53">
+        <v>0.08834390029711657</v>
+      </c>
+      <c r="H53">
+        <v>-0.006999027537140871</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.03157183809801157</v>
+        <v>0.02619189066398324</v>
       </c>
       <c r="C54">
-        <v>0.02969646480733547</v>
+        <v>-0.03513474273076838</v>
       </c>
       <c r="D54">
-        <v>0.09085700108849187</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08896880470535719</v>
+      </c>
+      <c r="E54">
+        <v>0.04071835393580423</v>
+      </c>
+      <c r="F54">
+        <v>-0.01318342747675522</v>
+      </c>
+      <c r="G54">
+        <v>-0.006634885391104297</v>
+      </c>
+      <c r="H54">
+        <v>0.1134460211060435</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09006258542109608</v>
+        <v>0.08525872316731843</v>
       </c>
       <c r="C55">
-        <v>0.06562338378998621</v>
+        <v>-0.08047877045894714</v>
       </c>
       <c r="D55">
-        <v>-0.0007453404955395745</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.009219221090423365</v>
+      </c>
+      <c r="E55">
+        <v>0.05943114765248847</v>
+      </c>
+      <c r="F55">
+        <v>0.0431966917794428</v>
+      </c>
+      <c r="G55">
+        <v>0.04270740828052654</v>
+      </c>
+      <c r="H55">
+        <v>-0.01417137783732874</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1370582270183637</v>
+        <v>0.1303374097891418</v>
       </c>
       <c r="C56">
-        <v>0.1007787990295258</v>
+        <v>-0.1243554500071766</v>
       </c>
       <c r="D56">
-        <v>0.01160698396397299</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.005579299037724805</v>
+      </c>
+      <c r="E56">
+        <v>0.06431127711489355</v>
+      </c>
+      <c r="F56">
+        <v>0.03286044993732965</v>
+      </c>
+      <c r="G56">
+        <v>0.04943089053939878</v>
+      </c>
+      <c r="H56">
+        <v>-0.006757226202420586</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.02582610809947982</v>
+        <v>0.03006502589286072</v>
       </c>
       <c r="C58">
-        <v>-0.031761109971385</v>
+        <v>-0.01565763764027549</v>
       </c>
       <c r="D58">
-        <v>0.3725260898514188</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3809169155209706</v>
+      </c>
+      <c r="E58">
+        <v>0.1770038692197023</v>
+      </c>
+      <c r="F58">
+        <v>0.160839059830807</v>
+      </c>
+      <c r="G58">
+        <v>-0.3307914106121347</v>
+      </c>
+      <c r="H58">
+        <v>-0.3935313105483099</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1386932731949089</v>
+        <v>0.1746543651097475</v>
       </c>
       <c r="C59">
-        <v>-0.1924461582074581</v>
+        <v>0.170686251009984</v>
       </c>
       <c r="D59">
-        <v>0.02643763303906303</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.0509017049902949</v>
+      </c>
+      <c r="E59">
+        <v>0.01850118725708283</v>
+      </c>
+      <c r="F59">
+        <v>-0.04112023048074538</v>
+      </c>
+      <c r="G59">
+        <v>-0.003674353864982368</v>
+      </c>
+      <c r="H59">
+        <v>-0.02600380679299477</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2537610560642419</v>
+        <v>0.2287468565034313</v>
       </c>
       <c r="C60">
-        <v>0.05655972842095421</v>
+        <v>-0.09879954309314659</v>
       </c>
       <c r="D60">
-        <v>0.1531961654418491</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1067221385420197</v>
+      </c>
+      <c r="E60">
+        <v>-0.3704694454589673</v>
+      </c>
+      <c r="F60">
+        <v>0.01537409224279353</v>
+      </c>
+      <c r="G60">
+        <v>0.03295410415260454</v>
+      </c>
+      <c r="H60">
+        <v>-0.1035282363589083</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04606537301473483</v>
+        <v>0.04075301104244537</v>
       </c>
       <c r="C61">
-        <v>0.05096509691408882</v>
+        <v>-0.05962482091737707</v>
       </c>
       <c r="D61">
-        <v>0.1031110473100882</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09422869214867916</v>
+      </c>
+      <c r="E61">
+        <v>0.002707330100474944</v>
+      </c>
+      <c r="F61">
+        <v>-0.01762056689385642</v>
+      </c>
+      <c r="G61">
+        <v>0.01789529128409801</v>
+      </c>
+      <c r="H61">
+        <v>0.07839634446639032</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01652936367308198</v>
+        <v>0.01440284394812746</v>
       </c>
       <c r="C63">
-        <v>0.02009200955185161</v>
+        <v>-0.03265370716308654</v>
       </c>
       <c r="D63">
-        <v>0.06283495313509532</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07027570905146369</v>
+      </c>
+      <c r="E63">
+        <v>0.02841382474495592</v>
+      </c>
+      <c r="F63">
+        <v>0.01766361148912575</v>
+      </c>
+      <c r="G63">
+        <v>0.0008294731770593605</v>
+      </c>
+      <c r="H63">
+        <v>0.04877686777274399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05820908950747655</v>
+        <v>0.05431213354942258</v>
       </c>
       <c r="C64">
-        <v>0.06160823554132123</v>
+        <v>-0.0803171456351181</v>
       </c>
       <c r="D64">
-        <v>0.05986731475369798</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.0547922309847468</v>
+      </c>
+      <c r="E64">
+        <v>0.02618843842104739</v>
+      </c>
+      <c r="F64">
+        <v>-0.01486519533088037</v>
+      </c>
+      <c r="G64">
+        <v>0.05953921051702468</v>
+      </c>
+      <c r="H64">
+        <v>0.04862990332979843</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.05594517683488368</v>
+        <v>0.04829056423763202</v>
       </c>
       <c r="C65">
-        <v>0.0008343156058324278</v>
+        <v>-0.02443430557950887</v>
       </c>
       <c r="D65">
-        <v>0.1090664626482723</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1152435988926786</v>
+      </c>
+      <c r="E65">
+        <v>-0.00169092392207545</v>
+      </c>
+      <c r="F65">
+        <v>0.01430811603577861</v>
+      </c>
+      <c r="G65">
+        <v>-0.03360498382984769</v>
+      </c>
+      <c r="H65">
+        <v>-0.02418519136785206</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.04494976164594126</v>
+        <v>0.04077661765777343</v>
       </c>
       <c r="C66">
-        <v>0.05274278346882033</v>
+        <v>-0.07180486008833788</v>
       </c>
       <c r="D66">
-        <v>0.1155928947571472</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1316945851289283</v>
+      </c>
+      <c r="E66">
+        <v>0.01127069265944461</v>
+      </c>
+      <c r="F66">
+        <v>-0.0112222333372493</v>
+      </c>
+      <c r="G66">
+        <v>-0.008893786719344276</v>
+      </c>
+      <c r="H66">
+        <v>0.05823428035370923</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04322792231992081</v>
+        <v>0.03734458190106875</v>
       </c>
       <c r="C67">
-        <v>0.02481194870039513</v>
+        <v>-0.02818971652793991</v>
       </c>
       <c r="D67">
-        <v>0.02320123664593899</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01866460522515525</v>
+      </c>
+      <c r="E67">
+        <v>0.01774042051425846</v>
+      </c>
+      <c r="F67">
+        <v>-0.0002989603359885966</v>
+      </c>
+      <c r="G67">
+        <v>-0.03005402016018379</v>
+      </c>
+      <c r="H67">
+        <v>0.04046997734995968</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1610006315294004</v>
+        <v>0.1936923871183377</v>
       </c>
       <c r="C68">
-        <v>-0.2472907102276045</v>
+        <v>0.2031895446106059</v>
       </c>
       <c r="D68">
-        <v>-0.02474700042720444</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01066478915286158</v>
+      </c>
+      <c r="E68">
+        <v>0.0498391705997246</v>
+      </c>
+      <c r="F68">
+        <v>0.03070384129170138</v>
+      </c>
+      <c r="G68">
+        <v>-0.01113088128520085</v>
+      </c>
+      <c r="H68">
+        <v>-0.004114471471982691</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08575348868990905</v>
+        <v>0.07653997782945045</v>
       </c>
       <c r="C69">
-        <v>0.07963569279902638</v>
+        <v>-0.09775561966172612</v>
       </c>
       <c r="D69">
-        <v>0.05702552237926736</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04625671934300791</v>
+      </c>
+      <c r="E69">
+        <v>0.02476882770571522</v>
+      </c>
+      <c r="F69">
+        <v>0.005381154134835029</v>
+      </c>
+      <c r="G69">
+        <v>0.03503441311201482</v>
+      </c>
+      <c r="H69">
+        <v>0.02881696517819849</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1380395066780998</v>
+        <v>0.178921944586741</v>
       </c>
       <c r="C71">
-        <v>-0.2443046606629287</v>
+        <v>0.2143530761626282</v>
       </c>
       <c r="D71">
-        <v>0.01400393220092157</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03450719736876087</v>
+      </c>
+      <c r="E71">
+        <v>0.0530413638072845</v>
+      </c>
+      <c r="F71">
+        <v>0.03396397529919825</v>
+      </c>
+      <c r="G71">
+        <v>0.02441245098867273</v>
+      </c>
+      <c r="H71">
+        <v>0.02280274099119582</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09680637645559427</v>
+        <v>0.09848938837111325</v>
       </c>
       <c r="C72">
-        <v>0.03516599486173887</v>
+        <v>-0.06659272386436572</v>
       </c>
       <c r="D72">
-        <v>0.09018821778852748</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.09521890914603996</v>
+      </c>
+      <c r="E72">
+        <v>-0.03885302635140473</v>
+      </c>
+      <c r="F72">
+        <v>0.03780645353490135</v>
+      </c>
+      <c r="G72">
+        <v>0.03715352130213664</v>
+      </c>
+      <c r="H72">
+        <v>0.03029078497891253</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2829178535996751</v>
+        <v>0.2470234570118606</v>
       </c>
       <c r="C73">
-        <v>-0.0009198503075368165</v>
+        <v>-0.07984496306695785</v>
       </c>
       <c r="D73">
-        <v>0.2387280056896793</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.1630940656019926</v>
+      </c>
+      <c r="E73">
+        <v>-0.6713018131343144</v>
+      </c>
+      <c r="F73">
+        <v>0.007079903145376952</v>
+      </c>
+      <c r="G73">
+        <v>-0.005686083837636156</v>
+      </c>
+      <c r="H73">
+        <v>-0.1449869203542011</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1097201270203318</v>
+        <v>0.0995274942239326</v>
       </c>
       <c r="C74">
-        <v>0.07620429412746556</v>
+        <v>-0.09095742105787145</v>
       </c>
       <c r="D74">
-        <v>0.02450114439174345</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0009714294036005218</v>
+      </c>
+      <c r="E74">
+        <v>0.08251715287325669</v>
+      </c>
+      <c r="F74">
+        <v>0.05767829126348911</v>
+      </c>
+      <c r="G74">
+        <v>0.05855659571752193</v>
+      </c>
+      <c r="H74">
+        <v>-0.03695022025738737</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2432922493268689</v>
+        <v>0.2298605246746415</v>
       </c>
       <c r="C75">
-        <v>0.1296564948010688</v>
+        <v>-0.1668381924481601</v>
       </c>
       <c r="D75">
-        <v>-0.04476073025307791</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.08913984708604321</v>
+      </c>
+      <c r="E75">
+        <v>0.1102241767168409</v>
+      </c>
+      <c r="F75">
+        <v>0.004295455226576806</v>
+      </c>
+      <c r="G75">
+        <v>0.04775804410269471</v>
+      </c>
+      <c r="H75">
+        <v>-0.1080691517825959</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1359619946082568</v>
+        <v>0.1270666655781074</v>
       </c>
       <c r="C76">
-        <v>0.08843146521691225</v>
+        <v>-0.1137076958723554</v>
       </c>
       <c r="D76">
-        <v>0.007388800033553635</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.01261379536885879</v>
+      </c>
+      <c r="E76">
+        <v>0.1164070311056863</v>
+      </c>
+      <c r="F76">
+        <v>0.0239239501121041</v>
+      </c>
+      <c r="G76">
+        <v>0.04749131255221744</v>
+      </c>
+      <c r="H76">
+        <v>-0.004410419323477432</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.06253059699526003</v>
+        <v>0.06020362453012081</v>
       </c>
       <c r="C77">
-        <v>0.05851896380578891</v>
+        <v>-0.06872270624485083</v>
       </c>
       <c r="D77">
-        <v>0.05490168427252257</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1318693048777468</v>
+      </c>
+      <c r="E77">
+        <v>0.2153557723672545</v>
+      </c>
+      <c r="F77">
+        <v>-0.2392340572237248</v>
+      </c>
+      <c r="G77">
+        <v>-0.232641468328262</v>
+      </c>
+      <c r="H77">
+        <v>-0.270401155084135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.04238018920551581</v>
+        <v>0.04158022536040595</v>
       </c>
       <c r="C78">
-        <v>0.05113921004253445</v>
+        <v>-0.06440226356540039</v>
       </c>
       <c r="D78">
-        <v>0.1194290113346597</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1318550559326964</v>
+      </c>
+      <c r="E78">
+        <v>0.01278478947896674</v>
+      </c>
+      <c r="F78">
+        <v>0.008669733930337138</v>
+      </c>
+      <c r="G78">
+        <v>0.0225155229879226</v>
+      </c>
+      <c r="H78">
+        <v>0.02546436089103834</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.008926014530470044</v>
+        <v>0.04347242217540643</v>
       </c>
       <c r="C79">
-        <v>0.04459699077050949</v>
+        <v>-0.08798715314715894</v>
       </c>
       <c r="D79">
-        <v>0.008372832827206834</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02081226479458815</v>
+      </c>
+      <c r="E79">
+        <v>0.188103069849328</v>
+      </c>
+      <c r="F79">
+        <v>0.1294838173396783</v>
+      </c>
+      <c r="G79">
+        <v>0.647630806442007</v>
+      </c>
+      <c r="H79">
+        <v>-0.4756806640441861</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.03064196369741491</v>
+        <v>0.0242392374733262</v>
       </c>
       <c r="C80">
-        <v>0.02770601702433911</v>
+        <v>-0.04243591629071394</v>
       </c>
       <c r="D80">
-        <v>0.02806577632176352</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03563929228447955</v>
+      </c>
+      <c r="E80">
+        <v>0.02362423372446147</v>
+      </c>
+      <c r="F80">
+        <v>-0.03235273867196686</v>
+      </c>
+      <c r="G80">
+        <v>-0.04751596420966157</v>
+      </c>
+      <c r="H80">
+        <v>0.02266317588351254</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1473631872764954</v>
+        <v>0.1293583935896431</v>
       </c>
       <c r="C81">
-        <v>0.09640843172524401</v>
+        <v>-0.1176543946528552</v>
       </c>
       <c r="D81">
-        <v>-0.04417317677834925</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.06247993813496076</v>
+      </c>
+      <c r="E81">
+        <v>0.1240573568085614</v>
+      </c>
+      <c r="F81">
+        <v>0.02267963633006639</v>
+      </c>
+      <c r="G81">
+        <v>0.0439695489189252</v>
+      </c>
+      <c r="H81">
+        <v>-0.02309754375520332</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.3011918991759466</v>
+        <v>0.2529913755789407</v>
       </c>
       <c r="C82">
-        <v>0.264170393810767</v>
+        <v>-0.2557097471295444</v>
       </c>
       <c r="D82">
-        <v>-0.2200576871703395</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2181779183552067</v>
+      </c>
+      <c r="E82">
+        <v>-0.004113855756124669</v>
+      </c>
+      <c r="F82">
+        <v>0.03770860284440051</v>
+      </c>
+      <c r="G82">
+        <v>0.1744764218681268</v>
+      </c>
+      <c r="H82">
+        <v>0.4559722421361055</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02866410384343196</v>
+        <v>0.02197138154986707</v>
       </c>
       <c r="C83">
-        <v>0.04529632820360294</v>
+        <v>-0.05229790095235009</v>
       </c>
       <c r="D83">
-        <v>0.04785710488260646</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05114387343175122</v>
+      </c>
+      <c r="E83">
+        <v>0.009991454295788479</v>
+      </c>
+      <c r="F83">
+        <v>-0.02208669285670225</v>
+      </c>
+      <c r="G83">
+        <v>-0.01006434256378006</v>
+      </c>
+      <c r="H83">
+        <v>0.02444203874587376</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0002460267059118486</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.004944856489834041</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01684283287404182</v>
+      </c>
+      <c r="E84">
+        <v>0.01450962214545984</v>
+      </c>
+      <c r="F84">
+        <v>0.008562357954683106</v>
+      </c>
+      <c r="G84">
+        <v>-0.007747436937593397</v>
+      </c>
+      <c r="H84">
+        <v>0.001838754420472214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1808722221538555</v>
+        <v>0.1596188402389704</v>
       </c>
       <c r="C85">
-        <v>0.09997698559934876</v>
+        <v>-0.1349084462289862</v>
       </c>
       <c r="D85">
-        <v>-0.03116759168563008</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.06484729289726773</v>
+      </c>
+      <c r="E85">
+        <v>0.05269004778458618</v>
+      </c>
+      <c r="F85">
+        <v>0.03630647375195705</v>
+      </c>
+      <c r="G85">
+        <v>0.07925413193145657</v>
+      </c>
+      <c r="H85">
+        <v>-0.1024678303096657</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01683609298183468</v>
+        <v>0.01874468440999764</v>
       </c>
       <c r="C86">
-        <v>0.01978327725353487</v>
+        <v>-0.02224825333214308</v>
       </c>
       <c r="D86">
-        <v>0.1402926189953727</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1269906036609547</v>
+      </c>
+      <c r="E86">
+        <v>0.01069087095632473</v>
+      </c>
+      <c r="F86">
+        <v>-0.01270609914760435</v>
+      </c>
+      <c r="G86">
+        <v>0.00402203432685195</v>
+      </c>
+      <c r="H86">
+        <v>0.05929270368431199</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02752831208701147</v>
+        <v>0.0330181065639832</v>
       </c>
       <c r="C87">
-        <v>0.00212794886093071</v>
+        <v>-0.02519531041366207</v>
       </c>
       <c r="D87">
-        <v>0.09797014324923044</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1353739751409651</v>
+      </c>
+      <c r="E87">
+        <v>0.07972349580783385</v>
+      </c>
+      <c r="F87">
+        <v>-0.008988336782471681</v>
+      </c>
+      <c r="G87">
+        <v>-0.01332974695943033</v>
+      </c>
+      <c r="H87">
+        <v>0.02855656753550735</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.0798561919422995</v>
+        <v>0.07045206984103589</v>
       </c>
       <c r="C88">
-        <v>0.04258530332332974</v>
+        <v>-0.05825333846495307</v>
       </c>
       <c r="D88">
-        <v>0.03938106666072172</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02082465330446042</v>
+      </c>
+      <c r="E88">
+        <v>0.01926084264434826</v>
+      </c>
+      <c r="F88">
+        <v>0.001552381100977121</v>
+      </c>
+      <c r="G88">
+        <v>0.01049559108802625</v>
+      </c>
+      <c r="H88">
+        <v>0.0431746639210444</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.2011971483527214</v>
+        <v>0.2735609473758207</v>
       </c>
       <c r="C89">
-        <v>-0.3799551737840864</v>
+        <v>0.3564915459554207</v>
       </c>
       <c r="D89">
-        <v>-0.03687455155726581</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.004242061273752606</v>
+      </c>
+      <c r="E89">
+        <v>0.05244438253019078</v>
+      </c>
+      <c r="F89">
+        <v>-0.04761295327983757</v>
+      </c>
+      <c r="G89">
+        <v>0.0550995808413854</v>
+      </c>
+      <c r="H89">
+        <v>0.06658435466992796</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1970306822388772</v>
+        <v>0.2388180507672514</v>
       </c>
       <c r="C90">
-        <v>-0.2992447306332442</v>
+        <v>0.2572818237323169</v>
       </c>
       <c r="D90">
-        <v>-0.03762020719020455</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01405700184153266</v>
+      </c>
+      <c r="E90">
+        <v>0.04385411003482725</v>
+      </c>
+      <c r="F90">
+        <v>0.013725388829726</v>
+      </c>
+      <c r="G90">
+        <v>-0.04299738267813428</v>
+      </c>
+      <c r="H90">
+        <v>0.04963813216256974</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1828621315582077</v>
+        <v>0.1621110645007742</v>
       </c>
       <c r="C91">
-        <v>0.1380041001050862</v>
+        <v>-0.158158576947542</v>
       </c>
       <c r="D91">
-        <v>-0.0610459582624241</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08254851781070846</v>
+      </c>
+      <c r="E91">
+        <v>0.1077504585637065</v>
+      </c>
+      <c r="F91">
+        <v>0.02935549109901542</v>
+      </c>
+      <c r="G91">
+        <v>0.07963157504745719</v>
+      </c>
+      <c r="H91">
+        <v>-0.1005697559165997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1668750187131605</v>
+        <v>0.2176903338828711</v>
       </c>
       <c r="C92">
-        <v>-0.2858689039135529</v>
+        <v>0.2727916444193224</v>
       </c>
       <c r="D92">
-        <v>0.006346010865854965</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.02733303392839151</v>
+      </c>
+      <c r="E92">
+        <v>0.09086001674290893</v>
+      </c>
+      <c r="F92">
+        <v>-0.01332401998681473</v>
+      </c>
+      <c r="G92">
+        <v>-0.009913670631687205</v>
+      </c>
+      <c r="H92">
+        <v>0.04051883398475158</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2304786378287808</v>
+        <v>0.2653754153776332</v>
       </c>
       <c r="C93">
-        <v>-0.3202086474463834</v>
+        <v>0.2718797242435755</v>
       </c>
       <c r="D93">
-        <v>-0.01341802179942876</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.005321653702263496</v>
+      </c>
+      <c r="E93">
+        <v>0.01874479702087757</v>
+      </c>
+      <c r="F93">
+        <v>0.02406673404299917</v>
+      </c>
+      <c r="G93">
+        <v>-0.0007350861554749144</v>
+      </c>
+      <c r="H93">
+        <v>-0.004683207680912627</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.396035793622639</v>
+        <v>0.3429785916559746</v>
       </c>
       <c r="C94">
-        <v>0.2286473158898756</v>
+        <v>-0.266425796856417</v>
       </c>
       <c r="D94">
-        <v>-0.4613108391886417</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4340944589922832</v>
+      </c>
+      <c r="E94">
+        <v>0.08575385567263973</v>
+      </c>
+      <c r="F94">
+        <v>-0.01147282880545253</v>
+      </c>
+      <c r="G94">
+        <v>-0.5247681452008987</v>
+      </c>
+      <c r="H94">
+        <v>-0.1056345691758637</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.07607772626642516</v>
+        <v>0.06675406971520381</v>
       </c>
       <c r="C95">
-        <v>0.06724127653403678</v>
+        <v>-0.06369328145914271</v>
       </c>
       <c r="D95">
-        <v>0.1261881935171109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.08429913223064558</v>
+      </c>
+      <c r="E95">
+        <v>0.02114739270950895</v>
+      </c>
+      <c r="F95">
+        <v>-0.9170573916159142</v>
+      </c>
+      <c r="G95">
+        <v>0.1099818751628021</v>
+      </c>
+      <c r="H95">
+        <v>-0.05615806102338595</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1770939733734861</v>
+        <v>0.1636018773864152</v>
       </c>
       <c r="C98">
-        <v>0.01879251541477905</v>
+        <v>-0.06090108030834896</v>
       </c>
       <c r="D98">
-        <v>0.1470876290061854</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.126328830797048</v>
+      </c>
+      <c r="E98">
+        <v>-0.3174093764021768</v>
+      </c>
+      <c r="F98">
+        <v>0.04216964244498135</v>
+      </c>
+      <c r="G98">
+        <v>0.04681519494805947</v>
+      </c>
+      <c r="H98">
+        <v>-0.04878121515984316</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.005571339521777944</v>
+        <v>0.006169689136313918</v>
       </c>
       <c r="C101">
-        <v>0.01802015303421973</v>
+        <v>-0.0216999696507762</v>
       </c>
       <c r="D101">
-        <v>0.06934249656239552</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.08209262984414678</v>
+      </c>
+      <c r="E101">
+        <v>0.03292347615087619</v>
+      </c>
+      <c r="F101">
+        <v>0.00400462278293069</v>
+      </c>
+      <c r="G101">
+        <v>0.02046277242799384</v>
+      </c>
+      <c r="H101">
+        <v>0.1038231777858106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1250531639489052</v>
+        <v>0.1081204394204727</v>
       </c>
       <c r="C102">
-        <v>0.11318457832447</v>
+        <v>-0.1199724358165742</v>
       </c>
       <c r="D102">
-        <v>-0.04047902049951908</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05439848469081172</v>
+      </c>
+      <c r="E102">
+        <v>0.03816155768809254</v>
+      </c>
+      <c r="F102">
+        <v>-0.0216605685500278</v>
+      </c>
+      <c r="G102">
+        <v>0.03985651671976873</v>
+      </c>
+      <c r="H102">
+        <v>0.02489207822648509</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
